--- a/uni_craw_section_chapter_header/Craw_ko_en/section_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/section_notes_2024.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/Craw_ko_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_23F921EDB74BCB26F72D4CA97D49DB5D72ADB45F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902897E6-3FA1-4948-97C8-17C46CFC71A6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_23F921EDB74BCB26F72D4CA97D49DB5D72ADB45F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4250FE57-99C5-40C9-B43D-337A9EB5F2EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -384,11 +397,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,16 +709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="6" width="65.140625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="92" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,22 +756,22 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -766,22 +782,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -792,22 +808,22 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -818,22 +834,22 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -844,22 +860,22 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -870,22 +886,22 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -896,22 +912,22 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -922,22 +938,22 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -948,22 +964,22 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -974,22 +990,22 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1000,22 +1016,22 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1026,22 +1042,22 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1052,22 +1068,22 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1078,22 +1094,22 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1104,22 +1120,22 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1130,22 +1146,22 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1156,22 +1172,22 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1182,22 +1198,22 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1208,22 +1224,22 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1234,22 +1250,22 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1260,22 +1276,22 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
